--- a/Test Files/IndentMe.xlsx
+++ b/Test Files/IndentMe.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jamasoftware-my.sharepoint.com/personal/pknowles_jamasoftware_com/Documents/Documents/Coding/Excel Indent Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jamasoftware-my.sharepoint.com/personal/pknowles_jamasoftware_com/Documents/Documents/Coding/Excel-Indent-Tool/Test Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3B43EBBB-66E4-45CE-B013-7496D3408D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B74AEE3-1D22-468B-B3AD-23F599E40B07}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{3B43EBBB-66E4-45CE-B013-7496D3408D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41600E5A-5787-47DF-9B6F-A77A0813F264}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="20880" xr2:uid="{80D9136B-FFEB-4A0F-B849-239EF69949ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,6 +41,12 @@
     <t>Heading</t>
   </si>
   <si>
+    <t>Expected Number of Indents</t>
+  </si>
+  <si>
+    <t>Expected Indenting</t>
+  </si>
+  <si>
     <t>1. Title</t>
   </si>
   <si>
@@ -53,23 +59,17 @@
     <t>Requirement Text</t>
   </si>
   <si>
+    <t>1.1.2 Sub-Subtitle</t>
+  </si>
+  <si>
     <t>1.2 Subtitle</t>
-  </si>
-  <si>
-    <t>Expected Indenting</t>
-  </si>
-  <si>
-    <t>1.1.2 Sub-Subtitle</t>
-  </si>
-  <si>
-    <t>Expected Number of Indents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,71 +449,72 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -524,37 +525,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Test Files/IndentMe.xlsx
+++ b/Test Files/IndentMe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jamasoftware-my.sharepoint.com/personal/pknowles_jamasoftware_com/Documents/Documents/Coding/Excel-Indent-Tool/Test Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{3B43EBBB-66E4-45CE-B013-7496D3408D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41600E5A-5787-47DF-9B6F-A77A0813F264}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{3B43EBBB-66E4-45CE-B013-7496D3408D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA80E7B9-5F3D-459E-B14A-7691CEA572CE}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="20880" xr2:uid="{80D9136B-FFEB-4A0F-B849-239EF69949ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>Heading</t>
   </si>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,115 +450,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941BE974-E2F5-472B-A68D-F69CD0EFB373}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="1" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
